--- a/stock_frame.xlsx
+++ b/stock_frame.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D48D17-22A1-408D-B65D-16D3DEBD5DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AF1A4-4AD8-4846-8A85-2A3BB5331FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="810" windowWidth="21600" windowHeight="11385" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
   <sheets>
     <sheet name="재무상태표" sheetId="1" r:id="rId1"/>
     <sheet name="손익계산서" sheetId="2" r:id="rId2"/>
+    <sheet name="투자지표" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>회사명</t>
   </si>
@@ -69,14 +70,47 @@
     <t>자기자본비율</t>
   </si>
   <si>
-    <t>ㅇ</t>
-  </si>
-  <si>
     <t>17~18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18~19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본잠식!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무상태표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손익계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자지표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +142,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,6 +217,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -183,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +279,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,20 +321,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,12 +645,12 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="7" max="7" width="9" style="2"/>
@@ -556,87 +659,93 @@
     <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1">
         <v>2018</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="4">
         <v>2019</v>
       </c>
       <c r="D1" s="1">
         <v>2018</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="4">
         <v>2019</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="L1" s="1">
         <v>2018</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="4">
         <v>2019</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -644,54 +753,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAC041-913E-4012-A521-40AA6FEE22E4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1">
         <v>2017</v>
       </c>
       <c r="C1" s="1">
         <v>2018</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="4">
         <v>2019</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="5">
         <v>2017</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="5">
         <v>2018</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="4">
         <v>2019</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="5">
         <v>2017</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="5">
         <v>2018</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="4">
         <v>2019</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="5">
         <v>2017</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="5">
         <v>2018</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="4">
         <v>2019</v>
       </c>
     </row>
@@ -699,26 +809,26 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -729,6 +839,77 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C71F6-92E2-4736-B940-6475E5AEA218}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stock_frame.xlsx
+++ b/stock_frame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AF1A4-4AD8-4846-8A85-2A3BB5331FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D5862-8784-4293-A810-1A1F5D04FEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
+    <workbookView xWindow="4725" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
   <sheets>
     <sheet name="재무상태표" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>회사명</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>ROE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020(E)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCCCDBC-4D9C-4562-903A-96CE3318FDC9}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -753,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAC041-913E-4012-A521-40AA6FEE22E4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -847,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C71F6-92E2-4736-B940-6475E5AEA218}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -866,20 +872,20 @@
       <c r="C1" s="8">
         <v>2019</v>
       </c>
-      <c r="D1" s="4">
-        <v>2020</v>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E1" s="8">
         <v>2019</v>
       </c>
-      <c r="F1" s="4">
-        <v>2020</v>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G1" s="8">
         <v>2019</v>
       </c>
-      <c r="H1" s="4">
-        <v>2020</v>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/stock_frame.xlsx
+++ b/stock_frame.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D5862-8784-4293-A810-1A1F5D04FEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7D405-40E9-4A11-B087-055580EA4DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
+    <workbookView xWindow="4185" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
   <sheets>
-    <sheet name="재무상태표" sheetId="1" r:id="rId1"/>
-    <sheet name="손익계산서" sheetId="2" r:id="rId2"/>
-    <sheet name="투자지표" sheetId="3" r:id="rId3"/>
+    <sheet name="손익계산서" sheetId="4" r:id="rId1"/>
+    <sheet name="비율지표" sheetId="8" r:id="rId2"/>
+    <sheet name="배당지표" sheetId="2" r:id="rId3"/>
+    <sheet name="투자지표" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>회사명</t>
   </si>
@@ -46,91 +47,81 @@
     <t>영업이익</t>
   </si>
   <si>
+    <t>당기순이익</t>
+  </si>
+  <si>
+    <t>손익계산서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당성향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주당배당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>영업이익률</t>
-  </si>
-  <si>
-    <t>당기순이익</t>
-  </si>
-  <si>
-    <t>유동비율</t>
-  </si>
-  <si>
-    <t>부채비율</t>
-  </si>
-  <si>
-    <t>유동부채증가율</t>
-  </si>
-  <si>
-    <t>자산증가율</t>
-  </si>
-  <si>
-    <t>부채증가율</t>
-  </si>
-  <si>
-    <t>자기자본비율</t>
-  </si>
-  <si>
-    <t>17~18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18~19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자본잠식!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무상태표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손익계산서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자지표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020(E)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순이익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율지표(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,26 +213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -264,15 +235,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,7 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,48 +259,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="백분율" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,268 +596,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCCCDBC-4D9C-4562-903A-96CE3318FDC9}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A37A2-587D-404F-AF5A-7EBF321490EF}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>2018</v>
       </c>
-      <c r="C1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4">
         <v>2018</v>
       </c>
-      <c r="E1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAC041-913E-4012-A521-40AA6FEE22E4}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5484CDE-B59E-410E-AE8D-A6DC4803D4C4}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4">
         <v>2017</v>
       </c>
-      <c r="C1" s="1">
+      <c r="I1" s="4">
         <v>2018</v>
       </c>
-      <c r="D1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="L1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="M1" s="4">
+      <c r="J1" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAC041-913E-4012-A521-40AA6FEE22E4}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C71F6-92E2-4736-B940-6475E5AEA218}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8">
-        <v>2019</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -914,8 +901,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>